--- a/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.645613790022509</v>
+        <v>22.645613806023562</v>
       </c>
       <c r="C2">
-        <v>7.9040980284943316</v>
+        <v>7.9040980587437559</v>
       </c>
       <c r="D2">
-        <v>28.780158872368503</v>
+        <v>28.780158960035152</v>
       </c>
       <c r="E2">
-        <v>13.086331783664093</v>
+        <v>13.086331942025424</v>
       </c>
       <c r="F2">
-        <v>44.390050769943912</v>
+        <v>44.390050796864102</v>
       </c>
       <c r="G2">
-        <v>13.317543300394192</v>
+        <v>13.317543326724177</v>
       </c>
       <c r="H2">
-        <v>-0.69169219795941217</v>
+        <v>-0.69169217255296189</v>
       </c>
       <c r="I2">
-        <v>14.249855222339988</v>
+        <v>14.249855242149863</v>
       </c>
       <c r="J2">
-        <v>13.07575176236881</v>
+        <v>13.075751771463132</v>
       </c>
       <c r="K2">
-        <v>-5.5482562022944535</v>
+        <v>-5.548256176023159</v>
       </c>
       <c r="L2">
-        <v>14.101878319262084</v>
+        <v>14.101878360770627</v>
       </c>
       <c r="M2">
-        <v>6.6587335829709957</v>
+        <v>6.6587335823371063</v>
       </c>
       <c r="N2">
-        <v>2.5257145247845472</v>
+        <v>2.5257146234825143</v>
       </c>
       <c r="O2">
-        <v>9.0624176116613455</v>
+        <v>9.0624176670648922</v>
       </c>
       <c r="P2">
-        <v>12.04246690955145</v>
+        <v>12.042466954416483</v>
       </c>
       <c r="Q2">
-        <v>4.3858313157393241</v>
+        <v>4.3858313480644995</v>
       </c>
       <c r="R2">
-        <v>4.032940454135769</v>
+        <v>4.0329404544207819</v>
       </c>
       <c r="S2">
-        <v>16.831470071499893</v>
+        <v>16.831470088969212</v>
       </c>
       <c r="T2">
-        <v>-7.551046511250803</v>
+        <v>-7.5510465087718046</v>
       </c>
       <c r="U2">
-        <v>-3.8077376551525788</v>
+        <v>-3.8077376393133022</v>
       </c>
       <c r="V2">
-        <v>-7.7169468911478134E-2</v>
+        <v>-7.7169426658599605E-2</v>
       </c>
       <c r="W2">
-        <v>17.891910242521334</v>
+        <v>17.891910313529053</v>
       </c>
       <c r="X2">
-        <v>-1.3729157332163879</v>
+        <v>-1.3729157380712991</v>
       </c>
       <c r="Y2">
-        <v>-7.0361507725574484</v>
+        <v>-7.0361507574746156</v>
       </c>
       <c r="Z2">
-        <v>0.40223961968371214</v>
+        <v>0.4022396423582677</v>
       </c>
       <c r="AA2">
-        <v>14.46631017297986</v>
+        <v>14.466310136903502</v>
       </c>
       <c r="AB2">
-        <v>11.14766014454176</v>
+        <v>11.147660159433002</v>
       </c>
       <c r="AC2">
-        <v>14.350608839430237</v>
+        <v>14.350608885413749</v>
       </c>
       <c r="AD2">
-        <v>11.909023900372233</v>
+        <v>11.90902390459641</v>
       </c>
       <c r="AE2">
-        <v>2.450992144967131</v>
+        <v>2.4509921239871062</v>
       </c>
       <c r="AF2">
-        <v>2.9157930229367821</v>
+        <v>2.9157930480704692</v>
       </c>
       <c r="AG2">
-        <v>8.8775815995453229</v>
+        <v>8.8775817530186316</v>
       </c>
       <c r="AH2">
-        <v>5.7349050387341549</v>
+        <v>5.7349050555140764</v>
       </c>
       <c r="AI2">
-        <v>38.346738669413071</v>
+        <v>38.346738657833157</v>
       </c>
       <c r="AJ2">
-        <v>10.485034373387776</v>
+        <v>10.485034445166178</v>
       </c>
       <c r="AK2">
-        <v>13.294679938317159</v>
+        <v>13.294679928837127</v>
       </c>
       <c r="AL2">
-        <v>-5.5538047150586465</v>
+        <v>-5.5538046597486641</v>
       </c>
       <c r="AM2">
-        <v>4.9237024140710162</v>
+        <v>4.92370248269836</v>
       </c>
       <c r="AN2">
-        <v>3.0777096145616269</v>
+        <v>3.0777097077496194</v>
       </c>
       <c r="AO2">
-        <v>-2.3065791884072553</v>
+        <v>-2.3065791254278736</v>
       </c>
       <c r="AP2">
-        <v>3.0774778618968242</v>
+        <v>3.0774779038276279</v>
       </c>
       <c r="AQ2">
-        <v>3.8640686464361238</v>
+        <v>3.864068724345799</v>
       </c>
       <c r="AR2">
-        <v>7.6495820705855806</v>
+        <v>7.6495820720905101</v>
       </c>
       <c r="AS2">
-        <v>3.6440816863570262</v>
+        <v>3.6440817395444469</v>
       </c>
       <c r="AT2">
-        <v>-4.1511564091607909</v>
+        <v>-4.1511563556048259</v>
       </c>
       <c r="AU2">
-        <v>1.8464833863793899</v>
+        <v>1.8464834340882135</v>
       </c>
       <c r="AV2">
-        <v>11.24183796865276</v>
+        <v>11.24183801538868</v>
       </c>
       <c r="AW2">
-        <v>-0.33937199098127735</v>
+        <v>-0.33937194506569313</v>
       </c>
       <c r="AX2">
-        <v>-0.65899202384400724</v>
+        <v>-0.65899198137864801</v>
       </c>
       <c r="AY2">
-        <v>-0.84340315773872021</v>
+        <v>-0.84340312952548402</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.00180411710781</v>
+        <v>22.001804110292255</v>
       </c>
       <c r="C3">
-        <v>13.452382866067381</v>
+        <v>13.452382865168943</v>
       </c>
       <c r="D3">
-        <v>-6.3750217505222508</v>
+        <v>-6.3750216958381714</v>
       </c>
       <c r="E3">
-        <v>-7.4566304464109976</v>
+        <v>-7.4566304404682455</v>
       </c>
       <c r="F3">
-        <v>22.331814988754473</v>
+        <v>22.331814991177367</v>
       </c>
       <c r="G3">
-        <v>4.9036779662760352</v>
+        <v>4.9036779621720541</v>
       </c>
       <c r="H3">
-        <v>5.4438193414048612</v>
+        <v>5.4438194188790874</v>
       </c>
       <c r="I3">
-        <v>3.3784389333650893</v>
+        <v>3.3784389166979736</v>
       </c>
       <c r="J3">
-        <v>7.9151402609615502</v>
+        <v>7.9151402733044165</v>
       </c>
       <c r="K3">
-        <v>20.168034150756995</v>
+        <v>20.168034188933404</v>
       </c>
       <c r="L3">
-        <v>1.5734422368257412</v>
+        <v>1.5734422805278143</v>
       </c>
       <c r="M3">
-        <v>7.0199687086068536</v>
+        <v>7.0202344362087672</v>
       </c>
       <c r="N3">
-        <v>3.6085024812782933</v>
+        <v>3.6085025178157366</v>
       </c>
       <c r="O3">
-        <v>7.0653639282373319</v>
+        <v>7.0653639578236493</v>
       </c>
       <c r="P3">
-        <v>-30.689233824937503</v>
+        <v>-30.68923377757045</v>
       </c>
       <c r="Q3">
-        <v>3.4370136869299301</v>
+        <v>3.4370137669887129</v>
       </c>
       <c r="R3">
-        <v>15.758594729119665</v>
+        <v>15.758594769767825</v>
       </c>
       <c r="S3">
-        <v>14.769678716145734</v>
+        <v>14.769678735328597</v>
       </c>
       <c r="T3">
-        <v>14.426135845174628</v>
+        <v>14.426135875541036</v>
       </c>
       <c r="U3">
-        <v>-2.8733149286618698</v>
+        <v>-2.8733149012002741</v>
       </c>
       <c r="V3">
-        <v>-8.7784037733867422</v>
+        <v>-8.7784037484757675</v>
       </c>
       <c r="W3">
-        <v>0.63937025035016859</v>
+        <v>0.63937024993046521</v>
       </c>
       <c r="X3">
-        <v>14.838072800855457</v>
+        <v>14.838072826944625</v>
       </c>
       <c r="Y3">
-        <v>9.2367532290384702</v>
+        <v>9.2367532772628635</v>
       </c>
       <c r="Z3">
-        <v>-4.9481982567352816</v>
+        <v>-4.9481982241418336</v>
       </c>
       <c r="AA3">
-        <v>11.252021562190066</v>
+        <v>11.252021568301529</v>
       </c>
       <c r="AB3">
-        <v>14.624752872766948</v>
+        <v>14.624752848040544</v>
       </c>
       <c r="AC3">
-        <v>6.6090292163863467</v>
+        <v>6.6090292512119788</v>
       </c>
       <c r="AD3">
-        <v>4.355418059303048</v>
+        <v>4.3554180869554102</v>
       </c>
       <c r="AE3">
-        <v>5.9918139080886306</v>
+        <v>5.9918138784282746</v>
       </c>
       <c r="AF3">
-        <v>7.8336115909339412</v>
+        <v>7.8336116044339121</v>
       </c>
       <c r="AG3">
-        <v>11.419248213991153</v>
+        <v>11.419248249971218</v>
       </c>
       <c r="AH3">
-        <v>9.7229669718255707</v>
+        <v>9.7229669828147678</v>
       </c>
       <c r="AI3">
-        <v>15.073097497249023</v>
+        <v>15.073097552429431</v>
       </c>
       <c r="AJ3">
-        <v>3.65392829989554</v>
+        <v>3.6539283252076871</v>
       </c>
       <c r="AK3">
-        <v>19.808701565650466</v>
+        <v>19.808701604694591</v>
       </c>
       <c r="AL3">
-        <v>-2.5604857648223458</v>
+        <v>-2.5604856985212336</v>
       </c>
       <c r="AM3">
-        <v>6.4443397110003104</v>
+        <v>6.4443398009292991</v>
       </c>
       <c r="AN3">
-        <v>15.865670704682685</v>
+        <v>15.865670750340229</v>
       </c>
       <c r="AO3">
-        <v>25.674512109159252</v>
+        <v>25.674512152155245</v>
       </c>
       <c r="AP3">
-        <v>-6.1569673412173813</v>
+        <v>-6.15696732451201</v>
       </c>
       <c r="AQ3">
-        <v>-1.7022096461601279</v>
+        <v>-1.7022095869712359</v>
       </c>
       <c r="AR3">
-        <v>1.5040288635237005</v>
+        <v>1.5040288870623328</v>
       </c>
       <c r="AS3">
-        <v>18.07117340265799</v>
+        <v>18.071173419273407</v>
       </c>
       <c r="AT3">
-        <v>0.29439919801339443</v>
+        <v>0.29439924395870776</v>
       </c>
       <c r="AU3">
-        <v>2.8415018251441779</v>
+        <v>2.8415018494324897</v>
       </c>
       <c r="AV3">
-        <v>0.86562567594282314</v>
+        <v>0.86562578415481539</v>
       </c>
       <c r="AW3">
-        <v>4.4248918337345344</v>
+        <v>4.424891863668023</v>
       </c>
       <c r="AX3">
-        <v>-28.263310796769986</v>
+        <v>-28.26331079333346</v>
       </c>
       <c r="AY3">
-        <v>-16.192451206233528</v>
+        <v>-16.192451168860288</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>22.645613806023562</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.9040980587437559</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>28.780158960035152</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>13.086331942025424</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.390050796864102</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.317543326724177</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.69169217255296189</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.249855242149863</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.075751771463132</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-5.548256176023159</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.101878360770627</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.6587335823371063</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.5257146234825143</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.0624176670648922</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.042466954416483</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.3858313480644995</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.0329404544207819</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>16.831470088969212</v>
+        <v>16.83150341896922</v>
       </c>
       <c r="T2">
-        <v>-7.5510465087718046</v>
+        <v>-7.5510131787717967</v>
       </c>
       <c r="U2">
-        <v>-3.8077376393133022</v>
+        <v>-3.8077043093132943</v>
       </c>
       <c r="V2">
-        <v>-7.7169426658599605E-2</v>
+        <v>-7.713609665862009E-2</v>
       </c>
       <c r="W2">
-        <v>17.891910313529053</v>
+        <v>17.891943643529032</v>
       </c>
       <c r="X2">
-        <v>-1.3729157380712991</v>
+        <v>-1.372949068071307</v>
       </c>
       <c r="Y2">
-        <v>-7.0361507574746156</v>
+        <v>-7.0361840874746235</v>
       </c>
       <c r="Z2">
-        <v>0.4022396423582677</v>
+        <v>0.40220631235825977</v>
       </c>
       <c r="AA2">
-        <v>14.466310136903502</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>11.147660159433002</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>14.350608885413749</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>11.90902390459641</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.4509921239871062</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.9157930480704692</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.8775817530186316</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.7349050555140764</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>38.346738657833157</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10.485034445166178</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.294679928837127</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-5.5538046597486641</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.92370248269836</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.0777097077496194</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-2.3065791254278736</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.0774779038276279</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.864068724345799</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>7.6495820720905101</v>
+        <v>7.649615402090518</v>
       </c>
       <c r="AS2">
-        <v>3.6440817395444469</v>
+        <v>3.6441150695444264</v>
       </c>
       <c r="AT2">
         <v>-4.1511563556048259</v>
       </c>
       <c r="AU2">
-        <v>1.8464834340882135</v>
+        <v>1.8465167640882214</v>
       </c>
       <c r="AV2">
         <v>11.24183801538868</v>
       </c>
       <c r="AW2">
-        <v>-0.33937194506569313</v>
+        <v>-0.33940527506570106</v>
       </c>
       <c r="AX2">
-        <v>-0.65899198137864801</v>
+        <v>-0.65902531137862752</v>
       </c>
       <c r="AY2">
         <v>-0.84340312952548402</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>22.001804110292255</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.452382865168943</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.3750216958381714</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-7.4566304404682455</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>22.331814991177367</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.9036779621720541</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.4438194188790874</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.3784389166979736</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.9151402733044165</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20.168034188933404</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.5734422805278143</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.0202344362087672</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.6085025178157366</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.0653639578236493</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-30.68923377757045</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.4370137669887129</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>15.758594769767825</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.769678735328597</v>
       </c>
       <c r="T3">
-        <v>14.426135875541036</v>
+        <v>14.426169205541044</v>
       </c>
       <c r="U3">
-        <v>-2.8733149012002741</v>
+        <v>-2.8732815712002662</v>
       </c>
       <c r="V3">
-        <v>-8.7784037484757675</v>
+        <v>-8.778370418475788</v>
       </c>
       <c r="W3">
-        <v>0.63937024993046521</v>
+        <v>0.63940357993047314</v>
       </c>
       <c r="X3">
-        <v>14.838072826944625</v>
+        <v>14.838106156944633</v>
       </c>
       <c r="Y3">
-        <v>9.2367532772628635</v>
+        <v>9.236719947262884</v>
       </c>
       <c r="Z3">
-        <v>-4.9481982241418336</v>
+        <v>-4.9482315541418416</v>
       </c>
       <c r="AA3">
-        <v>11.252021568301529</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.624752848040544</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>6.6090292512119788</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.3554180869554102</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.9918138784282746</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.8336116044339121</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.419248249971218</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.7229669828147678</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>15.073097552429431</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.6539283252076871</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>19.808701604694591</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-2.5604856985212336</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.4443398009292991</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.865670750340229</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>25.674512152155245</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-6.15696732451201</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.7022095869712359</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.5040288870623328</v>
+        <v>1.5040622170623124</v>
       </c>
       <c r="AS3">
         <v>18.071173419273407</v>
       </c>
       <c r="AT3">
-        <v>0.29439924395870776</v>
+        <v>0.29443257395871569</v>
       </c>
       <c r="AU3">
-        <v>2.8415018494324897</v>
+        <v>2.8415351794324977</v>
       </c>
       <c r="AV3">
-        <v>0.86562578415481539</v>
+        <v>0.86559245415480746</v>
       </c>
       <c r="AW3">
-        <v>4.424891863668023</v>
+        <v>4.4249251936680309</v>
       </c>
       <c r="AX3">
-        <v>-28.26331079333346</v>
+        <v>-28.263344123333439</v>
       </c>
       <c r="AY3">
         <v>-16.192451168860288</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.645647120022517</v>
+        <v>9.0623843370648842</v>
       </c>
       <c r="C2">
-        <v>6.3673980284943354</v>
+        <v>3.2811222617082194</v>
       </c>
       <c r="D2">
-        <v>28.780158872368503</v>
+        <v>3.0776763777496114</v>
       </c>
       <c r="E2">
-        <v>5.7729651136640712</v>
+        <v>3.864068724345799</v>
       </c>
       <c r="F2">
         <v>44.39008409994392</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.00180411710781</v>
+        <v>7.0653639578236493</v>
       </c>
       <c r="C3">
-        <v>6.8124161960673746</v>
+        <v>15.758628099767833</v>
       </c>
       <c r="D3">
-        <v>-6.3749884205222713</v>
+        <v>15.865637420340249</v>
       </c>
       <c r="E3">
-        <v>-7.4565971164109897</v>
+        <v>-1.8033215746505107</v>
       </c>
       <c r="F3">
         <v>22.331781658754466</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.645647120022517</v>
+        <v>38.665747953482509</v>
       </c>
       <c r="C2">
-        <v>6.3673980284943354</v>
+        <v>9.0623843370648842</v>
       </c>
       <c r="D2">
-        <v>28.780158872368503</v>
+        <v>14.227035812698375</v>
       </c>
       <c r="E2">
-        <v>5.7729651136640712</v>
+        <v>3.0776763777496114</v>
       </c>
       <c r="F2">
         <v>44.39008409994392</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.00180411710781</v>
+        <v>54.108535847815745</v>
       </c>
       <c r="C3">
-        <v>6.8124161960673746</v>
+        <v>7.0653639578236493</v>
       </c>
       <c r="D3">
-        <v>-6.3749884205222713</v>
+        <v>-7.0623268690707164</v>
       </c>
       <c r="E3">
-        <v>-7.4565971164109897</v>
+        <v>15.865637420340249</v>
       </c>
       <c r="F3">
         <v>22.331781658754466</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>22.64564713602357</v>
+      </c>
+      <c r="C2">
+        <v>6.3673980587437597</v>
+      </c>
+      <c r="D2">
+        <v>28.780158960035152</v>
+      </c>
+      <c r="E2">
+        <v>5.7729652720254023</v>
+      </c>
+      <c r="F2">
+        <v>44.39008412686411</v>
+      </c>
+      <c r="G2">
+        <v>13.317576656724157</v>
+      </c>
+      <c r="H2">
+        <v>-0.69172550255294141</v>
+      </c>
+      <c r="I2">
+        <v>14.249888572149871</v>
+      </c>
+      <c r="J2">
+        <v>13.075718441463152</v>
+      </c>
+      <c r="K2">
+        <v>-5.548289506023167</v>
+      </c>
+      <c r="L2">
+        <v>14.101911690770635</v>
+      </c>
+      <c r="M2">
+        <v>5.7409894892969362</v>
+      </c>
+      <c r="N2">
         <v>38.665747953482509</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>9.0623843370648842</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>12.042466954416483</v>
+      </c>
+      <c r="Q2">
+        <v>-27.270801981935477</v>
+      </c>
+      <c r="R2">
+        <v>3.2811222617082194</v>
+      </c>
+      <c r="S2">
+        <v>16.83150341896922</v>
+      </c>
+      <c r="T2">
+        <v>-7.6566981819533737</v>
+      </c>
+      <c r="U2">
+        <v>-3.8077043093132943</v>
+      </c>
+      <c r="V2">
+        <v>-7.713609665862009E-2</v>
+      </c>
+      <c r="W2">
+        <v>17.891943643529032</v>
+      </c>
+      <c r="X2">
+        <v>-1.372949068071307</v>
+      </c>
+      <c r="Y2">
+        <v>-7.0361840874746235</v>
+      </c>
+      <c r="Z2">
+        <v>0.40220631235825977</v>
+      </c>
+      <c r="AA2">
+        <v>14.466276806903494</v>
+      </c>
+      <c r="AB2">
+        <v>40.230993489433018</v>
+      </c>
+      <c r="AC2">
+        <v>14.350575555413769</v>
+      </c>
+      <c r="AD2">
+        <v>19.455690574596389</v>
+      </c>
+      <c r="AE2">
+        <v>2.4509921239871062</v>
+      </c>
+      <c r="AF2">
+        <v>2.9158263780704772</v>
+      </c>
+      <c r="AG2">
+        <v>8.8775817530186316</v>
+      </c>
+      <c r="AH2">
+        <v>5.7349383855140843</v>
+      </c>
+      <c r="AI2">
+        <v>38.346771987833137</v>
+      </c>
+      <c r="AJ2">
+        <v>10.485001115166199</v>
+      </c>
+      <c r="AK2">
+        <v>13.294646598837147</v>
+      </c>
+      <c r="AL2">
+        <v>-5.5538046597486641</v>
+      </c>
+      <c r="AM2">
         <v>14.227035812698375</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.0776763777496114</v>
       </c>
-      <c r="F2">
-        <v>44.39008409994392</v>
-      </c>
-      <c r="G2">
-        <v>13.317576630394171</v>
-      </c>
-      <c r="H2">
-        <v>-0.69172552795939168</v>
-      </c>
-      <c r="I2">
-        <v>14.249888552339996</v>
-      </c>
-      <c r="J2">
-        <v>13.075718432368831</v>
-      </c>
-      <c r="K2">
-        <v>-5.5482895322944614</v>
-      </c>
-      <c r="L2">
-        <v>14.101911649262092</v>
-      </c>
-      <c r="M2">
-        <v>5.740989470901269</v>
-      </c>
-      <c r="N2">
-        <v>38.665747854784541</v>
-      </c>
-      <c r="O2">
-        <v>9.0623842816613376</v>
-      </c>
-      <c r="P2">
-        <v>12.04246690955145</v>
-      </c>
-      <c r="Q2">
-        <v>-27.270802014260653</v>
-      </c>
-      <c r="R2">
-        <v>3.2811222503665078</v>
-      </c>
-      <c r="S2">
-        <v>16.831503401499901</v>
-      </c>
-      <c r="T2">
-        <v>-7.6566981986712506</v>
-      </c>
-      <c r="U2">
-        <v>-3.8077043251525708</v>
-      </c>
-      <c r="V2">
-        <v>-7.713613891149862E-2</v>
-      </c>
-      <c r="W2">
-        <v>17.891943572521313</v>
-      </c>
-      <c r="X2">
-        <v>-1.3729490632163959</v>
-      </c>
-      <c r="Y2">
-        <v>-7.0361841025574563</v>
-      </c>
-      <c r="Z2">
-        <v>0.4022062896837042</v>
-      </c>
-      <c r="AA2">
-        <v>14.466276842979852</v>
-      </c>
-      <c r="AB2">
-        <v>40.230993474541776</v>
-      </c>
-      <c r="AC2">
-        <v>14.350575509430257</v>
-      </c>
-      <c r="AD2">
-        <v>19.455690570372212</v>
-      </c>
-      <c r="AE2">
-        <v>2.450992144967131</v>
-      </c>
-      <c r="AF2">
-        <v>2.91582635293679</v>
-      </c>
-      <c r="AG2">
-        <v>8.8775815995453229</v>
-      </c>
-      <c r="AH2">
-        <v>5.7349383687341629</v>
-      </c>
-      <c r="AI2">
-        <v>38.34677199941305</v>
-      </c>
-      <c r="AJ2">
-        <v>10.485001043387797</v>
-      </c>
-      <c r="AK2">
-        <v>13.29464660831718</v>
-      </c>
-      <c r="AL2">
-        <v>-5.5538047150586465</v>
-      </c>
-      <c r="AM2">
-        <v>14.227035744071031</v>
-      </c>
-      <c r="AN2">
-        <v>3.077676284561619</v>
-      </c>
       <c r="AO2">
-        <v>-2.3065791884072553</v>
+        <v>-2.3065791254278736</v>
       </c>
       <c r="AP2">
-        <v>2.6531280874865217</v>
+        <v>2.6531281489293121</v>
       </c>
       <c r="AQ2">
-        <v>3.8640686464361238</v>
+        <v>3.864068724345799</v>
       </c>
       <c r="AR2">
-        <v>7.6496154005855885</v>
+        <v>7.649615402090518</v>
       </c>
       <c r="AS2">
-        <v>3.6441150163570057</v>
+        <v>3.6441150695444264</v>
       </c>
       <c r="AT2">
-        <v>-4.1511564091607909</v>
+        <v>-4.1511563556048259</v>
       </c>
       <c r="AU2">
-        <v>1.8465167163793978</v>
+        <v>1.8465167640882214</v>
       </c>
       <c r="AV2">
-        <v>11.24183796865276</v>
+        <v>11.24183801538868</v>
       </c>
       <c r="AW2">
-        <v>-0.33940532098128529</v>
+        <v>-0.33940527506570106</v>
       </c>
       <c r="AX2">
-        <v>-0.65902535384398675</v>
+        <v>-0.65902531137862752</v>
       </c>
       <c r="AY2">
-        <v>-0.84340315773872021</v>
+        <v>-0.84340312952548402</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>22.001804110292255</v>
+      </c>
+      <c r="C3">
+        <v>6.8124161951689359</v>
+      </c>
+      <c r="D3">
+        <v>-6.3749883658381918</v>
+      </c>
+      <c r="E3">
+        <v>-7.4565971104682376</v>
+      </c>
+      <c r="F3">
+        <v>22.331781661177359</v>
+      </c>
+      <c r="G3">
+        <v>4.903711292172062</v>
+      </c>
+      <c r="H3">
+        <v>5.4437860888791079</v>
+      </c>
+      <c r="I3">
+        <v>3.3784055866979656</v>
+      </c>
+      <c r="J3">
+        <v>5.6718402733044115</v>
+      </c>
+      <c r="K3">
+        <v>20.168034188933404</v>
+      </c>
+      <c r="L3">
+        <v>1.5734089505278064</v>
+      </c>
+      <c r="M3">
+        <v>7.0202344362087672</v>
+      </c>
+      <c r="N3">
         <v>54.108535847815745</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>7.0653639578236493</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-30.689200447570443</v>
+      </c>
+      <c r="Q3">
+        <v>3.4369804369887333</v>
+      </c>
+      <c r="R3">
+        <v>15.758628099767833</v>
+      </c>
+      <c r="S3">
+        <v>14.769678735328597</v>
+      </c>
+      <c r="T3">
+        <v>14.426169205541044</v>
+      </c>
+      <c r="U3">
+        <v>-2.8732815712002662</v>
+      </c>
+      <c r="V3">
+        <v>-8.778370418475788</v>
+      </c>
+      <c r="W3">
+        <v>0.72859100558500245</v>
+      </c>
+      <c r="X3">
+        <v>14.838106156944633</v>
+      </c>
+      <c r="Y3">
+        <v>9.236719947262884</v>
+      </c>
+      <c r="Z3">
+        <v>-4.9482315541418416</v>
+      </c>
+      <c r="AA3">
+        <v>11.252054898301537</v>
+      </c>
+      <c r="AB3">
+        <v>17.188052848040542</v>
+      </c>
+      <c r="AC3">
+        <v>6.6089959212119709</v>
+      </c>
+      <c r="AD3">
+        <v>4.3554180869554102</v>
+      </c>
+      <c r="AE3">
+        <v>5.9918472084282541</v>
+      </c>
+      <c r="AF3">
+        <v>7.8336449344339201</v>
+      </c>
+      <c r="AG3">
+        <v>11.419248249971218</v>
+      </c>
+      <c r="AH3">
+        <v>10.847849346741441</v>
+      </c>
+      <c r="AI3">
+        <v>13.499730882429446</v>
+      </c>
+      <c r="AJ3">
+        <v>3.653961655207695</v>
+      </c>
+      <c r="AK3">
+        <v>19.808668274694611</v>
+      </c>
+      <c r="AL3">
+        <v>-2.5604856985212336</v>
+      </c>
+      <c r="AM3">
         <v>-7.0623268690707164</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>15.865637420340249</v>
       </c>
-      <c r="F3">
-        <v>22.331781658754466</v>
-      </c>
-      <c r="G3">
-        <v>4.9037112962760432</v>
-      </c>
-      <c r="H3">
-        <v>5.4437860114048817</v>
-      </c>
-      <c r="I3">
-        <v>3.3784056033650813</v>
-      </c>
-      <c r="J3">
-        <v>5.6718402609615453</v>
-      </c>
-      <c r="K3">
-        <v>20.168034150756995</v>
-      </c>
-      <c r="L3">
-        <v>1.5734089068257333</v>
-      </c>
-      <c r="M3">
-        <v>7.0199687086068536</v>
-      </c>
-      <c r="N3">
-        <v>54.108535811278301</v>
-      </c>
-      <c r="O3">
-        <v>7.0653639282373319</v>
-      </c>
-      <c r="P3">
-        <v>-30.689200494937495</v>
-      </c>
-      <c r="Q3">
-        <v>3.4369803569299506</v>
-      </c>
-      <c r="R3">
-        <v>15.758628059119673</v>
-      </c>
-      <c r="S3">
-        <v>14.769678716145734</v>
-      </c>
-      <c r="T3">
-        <v>14.426169175174635</v>
-      </c>
-      <c r="U3">
-        <v>-2.8732815986618618</v>
-      </c>
-      <c r="V3">
-        <v>-8.7783704433867626</v>
-      </c>
-      <c r="W3">
-        <v>0.72859095633879178</v>
-      </c>
-      <c r="X3">
-        <v>14.838106130855465</v>
-      </c>
-      <c r="Y3">
-        <v>9.2367198990384907</v>
-      </c>
-      <c r="Z3">
-        <v>-4.9482315867352895</v>
-      </c>
-      <c r="AA3">
-        <v>11.252054892190074</v>
-      </c>
-      <c r="AB3">
-        <v>17.188052872766946</v>
-      </c>
-      <c r="AC3">
-        <v>6.6089958863863387</v>
-      </c>
-      <c r="AD3">
-        <v>4.355418059303048</v>
-      </c>
-      <c r="AE3">
-        <v>5.9918472380886101</v>
-      </c>
-      <c r="AF3">
-        <v>7.8336449209339492</v>
-      </c>
-      <c r="AG3">
-        <v>11.419248213991153</v>
-      </c>
-      <c r="AH3">
-        <v>10.847849346189918</v>
-      </c>
-      <c r="AI3">
-        <v>13.499730827249039</v>
-      </c>
-      <c r="AJ3">
-        <v>3.653961629895548</v>
-      </c>
-      <c r="AK3">
-        <v>19.808668235650487</v>
-      </c>
-      <c r="AL3">
-        <v>-2.5604857648223458</v>
-      </c>
-      <c r="AM3">
-        <v>-7.0623269589997051</v>
-      </c>
-      <c r="AN3">
-        <v>15.865637374682706</v>
-      </c>
       <c r="AO3">
-        <v>25.674512109159252</v>
+        <v>25.674512152155245</v>
       </c>
       <c r="AP3">
-        <v>-6.1570006712173893</v>
+        <v>-6.1570006545120179</v>
       </c>
       <c r="AQ3">
-        <v>-1.8033216356271282</v>
+        <v>-1.8033215746505107</v>
       </c>
       <c r="AR3">
-        <v>1.50406219352368</v>
+        <v>1.5040622170623124</v>
       </c>
       <c r="AS3">
-        <v>18.07117340265799</v>
+        <v>18.071173419273407</v>
       </c>
       <c r="AT3">
-        <v>0.29443252801340236</v>
+        <v>0.29443257395871569</v>
       </c>
       <c r="AU3">
-        <v>2.8415351551441859</v>
+        <v>2.8415351794324977</v>
       </c>
       <c r="AV3">
-        <v>0.8655923459428152</v>
+        <v>0.86559245415480746</v>
       </c>
       <c r="AW3">
-        <v>4.4249251637345424</v>
+        <v>4.4249251936680309</v>
       </c>
       <c r="AX3">
-        <v>-28.263344126769965</v>
+        <v>-28.263344123333439</v>
       </c>
       <c r="AY3">
-        <v>-16.192451206233528</v>
+        <v>-16.192451168860288</v>
       </c>
     </row>
   </sheetData>
